--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_4.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999211640251975</v>
+        <v>0.9999964233398566</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993047361786147</v>
+        <v>0.9990820198448263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999862794985886</v>
+        <v>0.9999878134175717</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999374726718847</v>
+        <v>0.9999879148034579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9995944467176265</v>
+        <v>0.999990344874528</v>
       </c>
       <c r="G2" t="n">
-        <v>7.358992197877191e-05</v>
+        <v>3.338655246602937e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006489982587085463</v>
+        <v>0.0008568941801828704</v>
       </c>
       <c r="I2" t="n">
-        <v>3.877082086428952e-06</v>
+        <v>1.40067710059541e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000438818108357258</v>
+        <v>5.526260409373053e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002213475952218435</v>
+        <v>9.766089398536165e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000403256369954032</v>
+        <v>0.0001316135579957747</v>
       </c>
       <c r="M2" t="n">
-        <v>0.008578456852999372</v>
+        <v>0.001827198743049846</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00007568253581</v>
+        <v>1.000003433593738</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00894365952108531</v>
+        <v>0.001904986376364311</v>
       </c>
       <c r="P2" t="n">
-        <v>117.0340049424828</v>
+        <v>123.2198849056535</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.7589203610246</v>
+        <v>182.9448003241953</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999336719682695</v>
+        <v>0.9999961885909137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992906104577096</v>
+        <v>0.9990812934973526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999895147111784</v>
+        <v>0.9999867946419121</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999472595980311</v>
+        <v>0.9999869376251573</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9996581986499367</v>
+        <v>0.9999895448151301</v>
       </c>
       <c r="G3" t="n">
-        <v>6.191430615625194e-05</v>
+        <v>3.557783080575732e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006621839991259587</v>
+        <v>0.0008575721936666048</v>
       </c>
       <c r="I3" t="n">
-        <v>2.962889200827743e-06</v>
+        <v>1.517771105053777e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003701332541079867</v>
+        <v>5.973099791471551e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000186552322884245</v>
+        <v>1.057534367759833e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003699327312373289</v>
+        <v>0.0001332424217472463</v>
       </c>
       <c r="M3" t="n">
-        <v>0.007868564427915167</v>
+        <v>0.001886208652449599</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000063674910461</v>
+        <v>1.000003658952723</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008203545505785365</v>
+        <v>0.001966508459774564</v>
       </c>
       <c r="P3" t="n">
-        <v>117.3795185755036</v>
+        <v>123.0927458745053</v>
       </c>
       <c r="Q3" t="n">
-        <v>177.1044339940454</v>
+        <v>182.8176612930471</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999439077923293</v>
+        <v>0.9999959633865312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992768802845675</v>
+        <v>0.9990806265337139</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999917660313679</v>
+        <v>0.9999858361590496</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995529373531855</v>
+        <v>0.9999860273384124</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997104424101322</v>
+        <v>0.9999887944306436</v>
       </c>
       <c r="G4" t="n">
-        <v>5.235961369725648e-05</v>
+        <v>3.768001486277115e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0006750005130691929</v>
+        <v>0.0008581947749470085</v>
       </c>
       <c r="I4" t="n">
-        <v>2.326720527682377e-06</v>
+        <v>1.627935296264796e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003137495090635823</v>
+        <v>6.389351325564281e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001580381147956324</v>
+        <v>1.133435214410612e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000340045828869385</v>
+        <v>0.0001346791869051553</v>
       </c>
       <c r="M4" t="n">
-        <v>0.007235994312964631</v>
+        <v>0.001941134072205502</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000053848519364</v>
+        <v>1.00000387514893</v>
       </c>
       <c r="O4" t="n">
-        <v>0.007544045571440726</v>
+        <v>0.002023772168360769</v>
       </c>
       <c r="P4" t="n">
-        <v>117.714749989543</v>
+        <v>122.977931613606</v>
       </c>
       <c r="Q4" t="n">
-        <v>177.4396654080848</v>
+        <v>182.7028470321479</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999523537822744</v>
+        <v>0.9999957482633731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9992636435804457</v>
+        <v>0.9990800033107298</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999932468892883</v>
+        <v>0.9999849368079455</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996194614408296</v>
+        <v>0.9999851809651346</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999753595435198</v>
+        <v>0.9999880921499177</v>
       </c>
       <c r="G5" t="n">
-        <v>4.447565281960063e-05</v>
+        <v>3.968809511550767e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006873563953426926</v>
+        <v>0.0008587765262463253</v>
       </c>
       <c r="I5" t="n">
-        <v>1.908265870400641e-06</v>
+        <v>1.731303119378286e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002670627639553602</v>
+        <v>6.776376817452261e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001344855540347656</v>
+        <v>1.204470400561756e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003131852147515851</v>
+        <v>0.0001359767455384142</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006669006884057073</v>
+        <v>0.001992187117604861</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000045740369017</v>
+        <v>1.000004081667162</v>
       </c>
       <c r="O5" t="n">
-        <v>0.006952920313858792</v>
+        <v>0.002076998647597152</v>
       </c>
       <c r="P5" t="n">
-        <v>118.0411372923409</v>
+        <v>122.8740887587628</v>
       </c>
       <c r="Q5" t="n">
-        <v>177.7660527108827</v>
+        <v>182.5990041773047</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999593125976753</v>
+        <v>0.9999955449621643</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9992510670693335</v>
+        <v>0.9990794377302135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999941316590557</v>
+        <v>0.999984098345882</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999674471989405</v>
+        <v>0.999984402433709</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9997891920848603</v>
+        <v>0.9999874397982822</v>
       </c>
       <c r="G6" t="n">
-        <v>3.797990409956779e-05</v>
+        <v>4.158582266155269e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006990960164209347</v>
+        <v>0.0008593044708322696</v>
       </c>
       <c r="I6" t="n">
-        <v>1.658251318247177e-06</v>
+        <v>1.827672599418722e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002284562448649662</v>
+        <v>7.132379914279758e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001150571998747745</v>
+        <v>1.270455295423349e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002890006266798487</v>
+        <v>0.0001371307623663703</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006162783794647334</v>
+        <v>0.00203926022521778</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000039059906232</v>
+        <v>1.000004276836322</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006425146259506622</v>
+        <v>0.002126075754855918</v>
       </c>
       <c r="P6" t="n">
-        <v>118.3569067552157</v>
+        <v>122.7806726863642</v>
       </c>
       <c r="Q6" t="n">
-        <v>178.0818221737576</v>
+        <v>182.505588104906</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999650521733663</v>
+        <v>0.9999953552517414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9992392153881102</v>
+        <v>0.9990789139866532</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999945668983549</v>
+        <v>0.9999833248501037</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997200180016771</v>
+        <v>0.9999836858905766</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998185830013703</v>
+        <v>0.9999868379675827</v>
       </c>
       <c r="G7" t="n">
-        <v>3.262226213032876e-05</v>
+        <v>4.335668618533598e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007101590406142416</v>
+        <v>0.000859793362456079</v>
       </c>
       <c r="I7" t="n">
-        <v>1.535263211633396e-06</v>
+        <v>1.916575114167896e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001964919573271975</v>
+        <v>7.460037303258094e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>9.901588305251528e-05</v>
+        <v>1.331330034252935e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002671856940744641</v>
+        <v>0.0001381507916999565</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005711590157769442</v>
+        <v>0.002082226841276809</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000033549913568</v>
+        <v>1.000004458958328</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005954744375407253</v>
+        <v>0.002170871548713737</v>
       </c>
       <c r="P7" t="n">
-        <v>118.6610312304395</v>
+        <v>122.6972694447249</v>
       </c>
       <c r="Q7" t="n">
-        <v>178.3859466489813</v>
+        <v>182.4221848632668</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999698059478483</v>
+        <v>0.9999951789077602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9992281391304619</v>
+        <v>0.9990784346755834</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999994660074374</v>
+        <v>0.9999826142697272</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997578826098883</v>
+        <v>0.9999830285599474</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999842955364454</v>
+        <v>0.9999862858128313</v>
       </c>
       <c r="G8" t="n">
-        <v>2.818482231786815e-05</v>
+        <v>4.500277984326783e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007204982409373558</v>
+        <v>0.0008602407783002994</v>
       </c>
       <c r="I8" t="n">
-        <v>1.508933920609667e-06</v>
+        <v>1.998246383968183e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001699184953710071</v>
+        <v>7.760618284249126e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>8.57136507862994e-05</v>
+        <v>1.387180086942194e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002475439422218827</v>
+        <v>0.0001390503449334646</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00530893796515538</v>
+        <v>0.002121385864081964</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000028986290066</v>
+        <v>1.00000462824855</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005534950445348664</v>
+        <v>0.002211697652190061</v>
       </c>
       <c r="P8" t="n">
-        <v>118.9534538811774</v>
+        <v>122.6227427776022</v>
       </c>
       <c r="Q8" t="n">
-        <v>178.6783692997192</v>
+        <v>182.347658196144</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999737520907238</v>
+        <v>0.999995015586569</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9992178047015881</v>
+        <v>0.999078003433262</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999945016783927</v>
+        <v>0.9999819606525677</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997894438891449</v>
+        <v>0.9999824310857636</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998632107146759</v>
+        <v>0.9999857793100572</v>
       </c>
       <c r="G9" t="n">
-        <v>2.450127115924306e-05</v>
+        <v>4.652731147370922e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007301449766621376</v>
+        <v>0.0008606433240780151</v>
       </c>
       <c r="I9" t="n">
-        <v>1.553692796662486e-06</v>
+        <v>2.073370529177673e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001477687229784066</v>
+        <v>8.033828398468867e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>7.465844976377996e-05</v>
+        <v>1.438412475244989e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002302604598959244</v>
+        <v>0.0001398398645630653</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004949875873114705</v>
+        <v>0.002157019041958351</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000025197992905</v>
+        <v>1.000004785036894</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00516060233668882</v>
+        <v>0.002248847808219491</v>
       </c>
       <c r="P9" t="n">
-        <v>119.2335711154176</v>
+        <v>122.5561123345261</v>
       </c>
       <c r="Q9" t="n">
-        <v>178.9584865339594</v>
+        <v>182.281027753068</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999770430479828</v>
+        <v>0.9999948644608183</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9992082371510612</v>
+        <v>0.9990775983891875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999941568636811</v>
+        <v>0.9999813612279472</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999815895213243</v>
+        <v>0.9999818793168884</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998801271233506</v>
+        <v>0.9999853143788402</v>
       </c>
       <c r="G10" t="n">
-        <v>2.142930701424198e-05</v>
+        <v>4.793800402018538e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007390758651119639</v>
+        <v>0.0008610214149421829</v>
       </c>
       <c r="I10" t="n">
-        <v>1.651129100285736e-06</v>
+        <v>2.142266000430696e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001292051279006604</v>
+        <v>8.286138609470955e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>6.542561515809313e-05</v>
+        <v>1.485439930688896e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002146220629713687</v>
+        <v>0.0001405492343118962</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004629179950514128</v>
+        <v>0.002189474914681266</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000022038673936</v>
+        <v>1.000004930117614</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004826253724731058</v>
+        <v>0.00228268539463714</v>
       </c>
       <c r="P10" t="n">
-        <v>119.5015021723624</v>
+        <v>122.4963741155507</v>
       </c>
       <c r="Q10" t="n">
-        <v>179.2264175909042</v>
+        <v>182.2212895340925</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999797888255891</v>
+        <v>0.9999947254230754</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991993651275568</v>
+        <v>0.9990772361323397</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999936828686413</v>
+        <v>0.9999808130801289</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998380753958344</v>
+        <v>0.9999813794843</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998942598276787</v>
+        <v>0.9999848900510826</v>
       </c>
       <c r="G11" t="n">
-        <v>1.886624414447822e-05</v>
+        <v>4.923586031930089e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007473575096165848</v>
+        <v>0.0008613595658083966</v>
       </c>
       <c r="I11" t="n">
-        <v>1.785068642481876e-06</v>
+        <v>2.205267920900424e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001136390289465286</v>
+        <v>8.51469964571527e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>5.771210314140286e-05</v>
+        <v>1.528360375661355e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002006237069394858</v>
+        <v>0.0001411851266813644</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00434352899661994</v>
+        <v>0.002218915508064714</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000019402727435</v>
+        <v>1.000005063593848</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004528442018350603</v>
+        <v>0.002313379335031351</v>
       </c>
       <c r="P11" t="n">
-        <v>119.756272513686</v>
+        <v>122.4429468493541</v>
       </c>
       <c r="Q11" t="n">
-        <v>179.4811879322279</v>
+        <v>182.167862267896</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999820863310854</v>
+        <v>0.9999945972542587</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991912112830682</v>
+        <v>0.9990769036149558</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999931273779081</v>
+        <v>0.9999803107368097</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999856717617803</v>
+        <v>0.9999809214270509</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999061013304681</v>
+        <v>0.9999845010206637</v>
       </c>
       <c r="G12" t="n">
-        <v>1.672162361255118e-05</v>
+        <v>5.043225996424738e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007549687655342933</v>
+        <v>0.0008616699561903832</v>
       </c>
       <c r="I12" t="n">
-        <v>1.942036897940662e-06</v>
+        <v>2.263005255210734e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001005558782243555</v>
+        <v>8.724157856227628e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>5.124910979335774e-05</v>
+        <v>1.567710520416749e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001879813737291392</v>
+        <v>0.0001417525903007528</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004089208188946997</v>
+        <v>0.002245712803638243</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000017197122158</v>
+        <v>1.000005186635912</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004263294247378376</v>
+        <v>0.002341317446955494</v>
       </c>
       <c r="P12" t="n">
-        <v>119.9976156980167</v>
+        <v>122.3949292039765</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.7225311165586</v>
+        <v>182.1198446225184</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999840060572311</v>
+        <v>0.9999944798537059</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991837603949639</v>
+        <v>0.9990766056304676</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999925192060178</v>
+        <v>0.9999798516408083</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998723769136112</v>
+        <v>0.999980509525761</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999160118674202</v>
+        <v>0.9999841470790061</v>
       </c>
       <c r="G13" t="n">
-        <v>1.492964352179247e-05</v>
+        <v>5.152814259096402e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007619238425234302</v>
+        <v>0.0008619481116301371</v>
       </c>
       <c r="I13" t="n">
-        <v>2.113891575169889e-06</v>
+        <v>2.315771915599057e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>8.956615137715265e-05</v>
+        <v>8.912510092174827e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>4.584002147616127e-05</v>
+        <v>1.60351146240827e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001766620132894974</v>
+        <v>0.0001422538184276037</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003863889688098312</v>
+        <v>0.002269981114259852</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000015354185058</v>
+        <v>1.000005299340442</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004028383471474965</v>
+        <v>0.002366618909802594</v>
       </c>
       <c r="P13" t="n">
-        <v>120.2243236466727</v>
+        <v>122.351935068931</v>
       </c>
       <c r="Q13" t="n">
-        <v>179.9492390652146</v>
+        <v>182.0768504874728</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999985624684152</v>
+        <v>0.999994371732836</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991769014349307</v>
+        <v>0.9990763383855586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999918829989091</v>
+        <v>0.9999794291931531</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998856395185959</v>
+        <v>0.9999801362338151</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999924373984552</v>
+        <v>0.9999838226863691</v>
       </c>
       <c r="G14" t="n">
-        <v>1.341872634071124e-05</v>
+        <v>5.253740345164574e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007683263806409681</v>
+        <v>0.0008621975730219937</v>
       </c>
       <c r="I14" t="n">
-        <v>2.293668327534079e-06</v>
+        <v>2.364326361461118e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>8.025842720804508e-05</v>
+        <v>9.0832072334709e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>4.127604776778958e-05</v>
+        <v>1.636323542404104e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001679969880082873</v>
+        <v>0.0001427120665867214</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003663157973758604</v>
+        <v>0.00229210391238368</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000013800303214</v>
+        <v>1.000005403136477</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003819106192483883</v>
+        <v>0.002389683521243059</v>
       </c>
       <c r="P14" t="n">
-        <v>120.4377186769447</v>
+        <v>122.3131405766648</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.1626340954865</v>
+        <v>182.0380559952066</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999869930197274</v>
+        <v>0.9999942738027016</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991706411782915</v>
+        <v>0.9990760935398356</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999912340864674</v>
+        <v>0.9999790489350013</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998969159092659</v>
+        <v>0.9999797971497242</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999314564177746</v>
+        <v>0.9999835295090677</v>
       </c>
       <c r="G15" t="n">
-        <v>1.214144514400202e-05</v>
+        <v>5.345153827097789e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007741700554200477</v>
+        <v>0.0008624261257569098</v>
       </c>
       <c r="I15" t="n">
-        <v>2.477035299921912e-06</v>
+        <v>2.408031714339839e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>7.234463243695255e-05</v>
+        <v>9.23826197178949e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>3.741051485197198e-05</v>
+        <v>1.665978213843376e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001605921159887896</v>
+        <v>0.0001431114691273041</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003484457654212779</v>
+        <v>0.002311958872276449</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000012486701062</v>
+        <v>1.000005497149407</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003632798230374334</v>
+        <v>0.002410383747883895</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6377714790985</v>
+        <v>122.278640468552</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.3626868976403</v>
+        <v>182.0035558870938</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999881504159481</v>
+        <v>0.9999941846842296</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991649300821558</v>
+        <v>0.9990758758829635</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999905905553718</v>
+        <v>0.9999787035335296</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999065080253863</v>
+        <v>0.9999794914591535</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999937456219135</v>
+        <v>0.9999832646578352</v>
       </c>
       <c r="G16" t="n">
-        <v>1.106106657582995e-05</v>
+        <v>5.428342008772473e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007795011129745734</v>
+        <v>0.0008626292988930201</v>
       </c>
       <c r="I16" t="n">
-        <v>2.658881633973864e-06</v>
+        <v>2.447730779678497e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>6.561286509947039e-05</v>
+        <v>9.378046682130903e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>3.413587336672213e-05</v>
+        <v>1.692767723945794e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001539440800725007</v>
+        <v>0.0001434594124204709</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003325818181414905</v>
+        <v>0.002329880256316293</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00001137560069</v>
+        <v>1.00000558270314</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003467405146790474</v>
+        <v>0.002429068082344694</v>
       </c>
       <c r="P16" t="n">
-        <v>120.824158262184</v>
+        <v>122.2477536194563</v>
       </c>
       <c r="Q16" t="n">
-        <v>180.5490736807259</v>
+        <v>181.9726690379981</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999891281814717</v>
+        <v>0.9999941029627921</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991597453977537</v>
+        <v>0.9990756717448095</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999989972930698</v>
+        <v>0.9999783888291163</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999146510209654</v>
+        <v>0.9999792095173263</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999942531322125</v>
+        <v>0.9999830223209397</v>
       </c>
       <c r="G17" t="n">
-        <v>1.014836537849689e-05</v>
+        <v>5.504625383526218e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007843407882826119</v>
+        <v>0.0008628198528992152</v>
       </c>
       <c r="I17" t="n">
-        <v>2.833407439333249e-06</v>
+        <v>2.483901647738855e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>5.989809361609841e-05</v>
+        <v>9.506971681562506e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>3.136592453095489e-05</v>
+        <v>1.717279925176081e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001479630003848587</v>
+        <v>0.0001437986370494176</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003185649914616622</v>
+        <v>0.002346193807750378</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000010436945787</v>
+        <v>1.00000566115572</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003321269626686276</v>
+        <v>0.002446076135437036</v>
       </c>
       <c r="P17" t="n">
-        <v>120.9963958237987</v>
+        <v>122.2198436806549</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.7213112423405</v>
+        <v>181.9447590991967</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999899607130538</v>
+        <v>0.999994028783972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.999155025827912</v>
+        <v>0.9990754923797711</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999989367449408</v>
+        <v>0.9999781028764068</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999216259215059</v>
+        <v>0.999978958726534</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999468592131309</v>
+        <v>0.9999828029754815</v>
       </c>
       <c r="G18" t="n">
-        <v>9.371233690516125e-06</v>
+        <v>5.573868055986449e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007887462995645701</v>
+        <v>0.0008629872822893295</v>
       </c>
       <c r="I18" t="n">
-        <v>3.004501817940165e-06</v>
+        <v>2.51676790983559e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>5.500309369623506e-05</v>
+        <v>9.621652085981486e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>2.900379775708762e-05</v>
+        <v>1.739466559216869e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001425894014451959</v>
+        <v>0.0001440766592365885</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003061247080932234</v>
+        <v>0.002360904075981582</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000009637715468</v>
+        <v>1.000005732367387</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003191570706822577</v>
+        <v>0.002461412650241296</v>
       </c>
       <c r="P18" t="n">
-        <v>121.1557316130102</v>
+        <v>122.1948426010366</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.880647031552</v>
+        <v>181.9197580195784</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999906761476204</v>
+        <v>0.9999939617402049</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991507098442222</v>
+        <v>0.9990753269148247</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999887980387233</v>
+        <v>0.9999778451466252</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999276494518704</v>
+        <v>0.9999787299717594</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999505844667362</v>
+        <v>0.9999826051260614</v>
       </c>
       <c r="G19" t="n">
-        <v>8.703406926551198e-06</v>
+        <v>5.636450469721933e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007927750808893518</v>
+        <v>0.0008631417365536597</v>
       </c>
       <c r="I19" t="n">
-        <v>3.165403515258935e-06</v>
+        <v>2.546390341325863e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>5.077576737374057e-05</v>
+        <v>9.726255966418413e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>2.697058544449976e-05</v>
+        <v>1.759478884587536e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001377323014378048</v>
+        <v>0.0001443227761445896</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002950153712359951</v>
+        <v>0.002374120988855019</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000008950898284</v>
+        <v>1.000005796729403</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003075747863555195</v>
+        <v>0.002475192234458536</v>
       </c>
       <c r="P19" t="n">
-        <v>121.3035920164126</v>
+        <v>122.1725120798356</v>
       </c>
       <c r="Q19" t="n">
-        <v>181.0285074349544</v>
+        <v>181.8974274983775</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999912842580708</v>
+        <v>0.9999939006840773</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991468093700925</v>
+        <v>0.9990751784833093</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999882599853362</v>
+        <v>0.9999776116714737</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999327975698945</v>
+        <v>0.9999785234909048</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999537550165334</v>
+        <v>0.9999824255166324</v>
       </c>
       <c r="G20" t="n">
-        <v>8.135762514064918e-06</v>
+        <v>5.693443684756502e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007964160022783185</v>
+        <v>0.0008632802908579562</v>
       </c>
       <c r="I20" t="n">
-        <v>3.317444398194829e-06</v>
+        <v>2.573225042545964e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>4.716280727924948e-05</v>
+        <v>9.820674536119737e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>2.524012583872215e-05</v>
+        <v>1.777646248078968e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001333863873940046</v>
+        <v>0.0001445692578282837</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00285232580783909</v>
+        <v>0.002386093813066976</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000008367112252</v>
+        <v>1.000005855343286</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002973755222607202</v>
+        <v>0.002487674766584359</v>
       </c>
       <c r="P20" t="n">
-        <v>121.4384821783282</v>
+        <v>122.1523905517827</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.16339759687</v>
+        <v>181.8773059703245</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999918076725577</v>
+        <v>0.9999938461370362</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991432787169309</v>
+        <v>0.9990750424687413</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999877539629654</v>
+        <v>0.9999774031171904</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999372528196001</v>
+        <v>0.9999783387766787</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999564883983589</v>
+        <v>0.9999822652736682</v>
       </c>
       <c r="G21" t="n">
-        <v>7.647178065736552e-06</v>
+        <v>5.744360953331747e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007997117120269695</v>
+        <v>0.0008634072544867604</v>
       </c>
       <c r="I21" t="n">
-        <v>3.460434090085594e-06</v>
+        <v>2.597195438722132e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>4.403610363302199e-05</v>
+        <v>9.905139766870977e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>2.374826886155379e-05</v>
+        <v>1.793854707704615e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001294668814467959</v>
+        <v>0.0001447666293917901</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002765353153891298</v>
+        <v>0.002396739650719649</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000007864634345</v>
+        <v>1.000005907708445</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002883079962722639</v>
+        <v>0.002498773819585829</v>
       </c>
       <c r="P21" t="n">
-        <v>121.5623477169496</v>
+        <v>122.134583776256</v>
       </c>
       <c r="Q21" t="n">
-        <v>181.2872631354914</v>
+        <v>181.8594991947978</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999922576655439</v>
+        <v>0.9999937952547859</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991400785318058</v>
+        <v>0.9990749223478582</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999872787700023</v>
+        <v>0.9999772111686801</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999411041198841</v>
+        <v>0.9999781716537971</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999588414690044</v>
+        <v>0.9999821161940505</v>
       </c>
       <c r="G22" t="n">
-        <v>7.227129365608583e-06</v>
+        <v>5.791857300519459e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008026989443693797</v>
+        <v>0.000863519382058426</v>
       </c>
       <c r="I22" t="n">
-        <v>3.59471213646019e-06</v>
+        <v>2.619257233689577e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>4.133325296554574e-05</v>
+        <v>9.981560912418915e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>2.246398255100297e-05</v>
+        <v>1.808934002927449e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001259542590294112</v>
+        <v>0.0001449537983450924</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002688332078744846</v>
+        <v>0.002406627786035776</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000007432641078</v>
+        <v>1.000005956555406</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002802779940951596</v>
+        <v>0.002509082913293624</v>
       </c>
       <c r="P22" t="n">
-        <v>121.6753372910084</v>
+        <v>122.1181150810512</v>
       </c>
       <c r="Q22" t="n">
-        <v>181.4002527095502</v>
+        <v>181.8430304995931</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999926480653618</v>
+        <v>0.9999937502090646</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991371613557923</v>
+        <v>0.9990748113408258</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999868412649647</v>
+        <v>0.9999770365352665</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999444595025051</v>
+        <v>0.9999780174662172</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999608854598339</v>
+        <v>0.9999819848831568</v>
       </c>
       <c r="G23" t="n">
-        <v>6.862708272115478e-06</v>
+        <v>5.833905504163924e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008054220001286967</v>
+        <v>0.0008636230022506217</v>
       </c>
       <c r="I23" t="n">
-        <v>3.718340485958859e-06</v>
+        <v>2.639328900608544e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>3.897843836056593e-05</v>
+        <v>1.005206706560987e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.134838942326239e-05</v>
+        <v>1.822216004599961e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001227617061925699</v>
+        <v>0.0001451232835625461</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002619677131273142</v>
+        <v>0.002415347905409058</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000007057857253</v>
+        <v>1.000005999799298</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002731202210230689</v>
+        <v>0.002518174266201763</v>
       </c>
       <c r="P23" t="n">
-        <v>121.7788168045654</v>
+        <v>122.1036477681699</v>
       </c>
       <c r="Q23" t="n">
-        <v>181.5037322231072</v>
+        <v>181.8285631867118</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999929819824387</v>
+        <v>0.9999937096748474</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991345560432404</v>
+        <v>0.999074713168889</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999864301552629</v>
+        <v>0.9999768824464504</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999473474941422</v>
+        <v>0.9999778808055126</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999626360084746</v>
+        <v>0.9999818659346731</v>
       </c>
       <c r="G24" t="n">
-        <v>6.551011338071285e-06</v>
+        <v>5.871742416679745e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008078539450358463</v>
+        <v>0.0008637146414443451</v>
       </c>
       <c r="I24" t="n">
-        <v>3.83451015154317e-06</v>
+        <v>2.65703925356531e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.695163973452351e-05</v>
+        <v>1.011455861369709e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>2.039295459190262e-05</v>
+        <v>1.83424755746751e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001199285090473654</v>
+        <v>0.0001452660909337685</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002559494352029573</v>
+        <v>0.002423167847401361</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000006737296859</v>
+        <v>1.000006038712147</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002668457325479193</v>
+        <v>0.002526327119314189</v>
       </c>
       <c r="P24" t="n">
-        <v>121.871782234954</v>
+        <v>122.0907182679669</v>
       </c>
       <c r="Q24" t="n">
-        <v>181.5966976534959</v>
+        <v>181.8156336865088</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999932722899663</v>
+        <v>0.9999936725696318</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991321866752452</v>
+        <v>0.9990746235362329</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999860543595501</v>
+        <v>0.9999767411914586</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999498697245873</v>
+        <v>0.9999777567131507</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999641601021109</v>
+        <v>0.9999817576629456</v>
       </c>
       <c r="G25" t="n">
-        <v>6.280022004195049e-06</v>
+        <v>5.906378506680405e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.000810065646056193</v>
+        <v>0.0008637983095944223</v>
       </c>
       <c r="I25" t="n">
-        <v>3.94070093732552e-06</v>
+        <v>2.673274538028799e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>3.518153308491805e-05</v>
+        <v>1.017130297072495e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.956111701112178e-05</v>
+        <v>1.845199164185177e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001173772067974324</v>
+        <v>0.0001454049605322358</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002505997207539356</v>
+        <v>0.002430304200440843</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000006458601632</v>
+        <v>1.000006074333154</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002612682696793672</v>
+        <v>0.00253376728167685</v>
       </c>
       <c r="P25" t="n">
-        <v>121.9562741472752</v>
+        <v>122.0789553763924</v>
       </c>
       <c r="Q25" t="n">
-        <v>181.681189565817</v>
+        <v>181.8038707949343</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999935263590601</v>
+        <v>0.9999936392741829</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991300393509256</v>
+        <v>0.9990745422179604</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999857135057022</v>
+        <v>0.9999766138741916</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999520839446615</v>
+        <v>0.9999776468723847</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999654955937912</v>
+        <v>0.9999816606181934</v>
       </c>
       <c r="G26" t="n">
-        <v>6.042859657364827e-06</v>
+        <v>5.937458346659952e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008120700790518495</v>
+        <v>0.0008638742166322808</v>
       </c>
       <c r="I26" t="n">
-        <v>4.037017996603308e-06</v>
+        <v>2.687907876092032e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>3.362758876372244e-05</v>
+        <v>1.022153042664036e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>1.883221680309054e-05</v>
+        <v>1.855015170497841e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001150480763878836</v>
+        <v>0.0001455235538130702</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002458222865682611</v>
+        <v>0.002436690039102215</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000006214695302</v>
+        <v>1.000006106296784</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002562874502297564</v>
+        <v>0.002540424978710544</v>
       </c>
       <c r="P26" t="n">
-        <v>122.0332664097101</v>
+        <v>122.068458807855</v>
       </c>
       <c r="Q26" t="n">
-        <v>181.7581818282519</v>
+        <v>181.7933742263968</v>
       </c>
     </row>
   </sheetData>
